--- a/Data/InterFaceData.xlsx
+++ b/Data/InterFaceData.xlsx
@@ -1045,8 +1045,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
